--- a/airflow/data_analysis/classify_elastic/structured_data/excels_sanidad_oit/sanidad_oit.xlsx
+++ b/airflow/data_analysis/classify_elastic/structured_data/excels_sanidad_oit/sanidad_oit.xlsx
@@ -5,12 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="OIT" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Hospitales" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Museos" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t xml:space="preserve">Nombre de oficina</t>
   </si>
@@ -56,6 +55,12 @@
 Puerto de la Cruz</t>
   </si>
   <si>
+    <t xml:space="preserve">28.418020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-16.550103</t>
+  </si>
+  <si>
     <t xml:space="preserve">manuelp@tenerife.es</t>
   </si>
   <si>
@@ -70,6 +75,12 @@
 38400 Puerto de la Cruz</t>
   </si>
   <si>
+    <t xml:space="preserve">28.414587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-16.555873</t>
+  </si>
+  <si>
     <t xml:space="preserve">info@citpuerto.com</t>
   </si>
   <si>
@@ -101,42 +112,6 @@
   </si>
   <si>
     <t xml:space="preserve">Cl Valois 13 38400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International Art Gallery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cl La Hoya 20 38400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jardin Botanico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cl Retama 2 La Paz 38400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Museo Arqueologico Puerto de la Cruz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cl El Lomo 9 38400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Museo de Arte Contemporaneo Eduardo Westerdahl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cl Las Lonjas 1 Casa de la Aduana 38400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sala de Arte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cl San Juan 16 38400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Galeria de Arte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cl Agustin de Bethencourt 12 38400</t>
   </si>
 </sst>
 </file>
@@ -147,7 +122,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -181,6 +156,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -247,7 +229,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -268,19 +250,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -364,17 +346,21 @@
   </sheetPr>
   <dimension ref="A2:H4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8112244897959"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.4540816326531"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.7295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.0612244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.2040816326531"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -403,53 +389,53 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="122.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="163.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>28418020</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>-16550103</v>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>922386000</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>922384769</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>28414587</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>-16555873</v>
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>922388777</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>14</v>
+      <c r="F4" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -481,53 +467,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="6"/>
+      <c r="A2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="6"/>
+      <c r="A3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -541,114 +527,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="7"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>